--- a/ERD_Diagram.xlsx
+++ b/ERD_Diagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21to30\22042020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\21to30\23042020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Employee</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Authority</t>
-  </si>
-  <si>
     <t>employee_name : varchar(255)</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>level_name : varchar(255)</t>
   </si>
   <si>
-    <t>authority_name : varchar(255)</t>
-  </si>
-  <si>
     <t>level_id : int(FK)</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
   </si>
   <si>
     <t>level_id : int(PK)</t>
-  </si>
-  <si>
-    <t>authority_id : int(PK)</t>
   </si>
   <si>
     <t>phone_no : varchar(15)</t>
@@ -132,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,14 +154,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,63 +215,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -303,10 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,13 +679,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2072640</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1289,6 +1218,66 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>1</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2072640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Oval 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F14017-330C-4714-B371-2667E1353284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3263265" y="2489835"/>
+          <a:ext cx="26670" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1594,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F23"/>
+  <dimension ref="C1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1616,33 +1605,33 @@
     </row>
     <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>3</v>
@@ -1650,76 +1639,58 @@
     </row>
     <row r="8" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
-        <v>19</v>
+    <row r="13" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>23</v>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
